--- a/src/assets/images/Supplier_Upload_Template.xlsx
+++ b/src/assets/images/Supplier_Upload_Template.xlsx
@@ -25,28 +25,28 @@
     <t xml:space="preserve">Supplier Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address Line 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address Line 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pincode</t>
+  </si>
+  <si>
     <t xml:space="preserve">GSTIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address Line 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address Line 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pincode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
   </si>
 </sst>
 </file>
@@ -88,9 +88,9 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="DejaVu Math TeX Gyre"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,14 +168,14 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="14.43"/>
   </cols>
@@ -184,7 +184,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">

--- a/src/assets/images/Supplier_Upload_Template.xlsx
+++ b/src/assets/images/Supplier_Upload_Template.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Supplier Name</t>
   </si>
   <si>
     <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country Code</t>
   </si>
   <si>
     <t xml:space="preserve">Phone Number</t>
@@ -56,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -85,12 +88,6 @@
       <name val="DejaVu Math TeX Gyre"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="DejaVu Math TeX Gyre"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,7 +132,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -144,18 +141,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -165,26 +158,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.96"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -205,8 +198,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/images/Supplier_Upload_Template.xlsx
+++ b/src/assets/images/Supplier_Upload_Template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Supplier Name</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t xml:space="preserve">GSTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APAAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apaar@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -143,12 +149,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -158,19 +164,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="14.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -205,7 +213,24 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>9453691551</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="apaar@mailinator.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/src/assets/images/Supplier_Upload_Template.xlsx
+++ b/src/assets/images/Supplier_Upload_Template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Supplier Name</t>
   </si>
@@ -50,12 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">GSTIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APAAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apaar@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -164,10 +158,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -213,24 +207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>91</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>9453691551</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="apaar@mailinator.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
